--- a/Figure3/Fig3_2/Targetsignificance.xlsx
+++ b/Figure3/Fig3_2/Targetsignificance.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.09756860521728815</v>
+        <v>0.07291733625820804</v>
       </c>
       <c r="D5">
-        <v>0.151809565748669</v>
+        <v>0.1048236146016209</v>
       </c>
     </row>
   </sheetData>
